--- a/data/trans_orig/IP19C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6039911B-0EF7-4B47-91BD-40B4E4C9F535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{881146A4-F9AC-4554-AB8A-0C2914130256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{C1638BE9-A9E0-4CC0-8F49-795708527B8C}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4AA0941A-6BA2-415A-80C6-310E0715230B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>94,68%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>96,26%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>5,32%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>9,06%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>4,81%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
     <t>95,17%</t>
   </si>
   <si>
@@ -419,6 +419,87 @@
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
   </si>
   <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
     <t>96,41%</t>
   </si>
   <si>
@@ -467,55 +548,46 @@
     <t>5,95%</t>
   </si>
   <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
   </si>
   <si>
     <t>89,44%</t>
@@ -536,9 +608,6 @@
     <t>97,13%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
     <t>10,56%</t>
   </si>
   <si>
@@ -557,75 +626,6 @@
     <t>8,52%</t>
   </si>
   <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
     <t>96,23%</t>
   </si>
   <si>
@@ -683,6 +683,84 @@
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2015 (Tasa respuesta: 48,73%)</t>
   </si>
   <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
     <t>98,34%</t>
   </si>
   <si>
@@ -737,52 +815,58 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>98,66%</t>
@@ -827,90 +911,6 @@
     <t>3,3%</t>
   </si>
   <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
     <t>97,35%</t>
   </si>
   <si>
@@ -956,6 +956,60 @@
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
     <t>97,22%</t>
   </si>
   <si>
@@ -1004,40 +1058,52 @@
     <t>5,3%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>95,96%</t>
@@ -1080,72 +1146,6 @@
   </si>
   <si>
     <t>1,12%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
   </si>
   <si>
     <t>96,61%</t>
@@ -1591,7 +1591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59104A2-3D24-4884-827B-D8DB58F4FAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068EC481-AC7A-4FD3-9051-06BACA435D1D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1709,10 +1709,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>105689</v>
+        <v>12897</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1724,10 +1724,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>103063</v>
+        <v>13299</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1739,10 +1739,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>324</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>208752</v>
+        <v>26195</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1760,10 +1760,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>5942</v>
+        <v>832</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1775,10 +1775,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>6998</v>
+        <v>4260</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1790,10 +1790,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>12940</v>
+        <v>5093</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1811,10 +1811,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>111631</v>
+        <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1826,10 +1826,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="I6" s="7">
-        <v>110061</v>
+        <v>17559</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1841,10 +1841,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>344</v>
+        <v>40</v>
       </c>
       <c r="N6" s="7">
-        <v>221692</v>
+        <v>31288</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2019,10 +2019,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="D10" s="7">
-        <v>88146</v>
+        <v>105689</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2034,10 +2034,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>93566</v>
+        <v>103063</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2049,10 +2049,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>249</v>
+        <v>324</v>
       </c>
       <c r="N10" s="7">
-        <v>181713</v>
+        <v>208752</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2070,10 +2070,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>1897</v>
+        <v>5942</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2085,10 +2085,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>2423</v>
+        <v>6998</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2100,10 +2100,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>4319</v>
+        <v>12940</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2121,10 +2121,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="D12" s="7">
-        <v>90043</v>
+        <v>111631</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2136,10 +2136,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="I12" s="7">
-        <v>95989</v>
+        <v>110061</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2151,10 +2151,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="N12" s="7">
-        <v>186032</v>
+        <v>221692</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2174,10 +2174,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D13" s="7">
-        <v>12897</v>
+        <v>73940</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2189,10 +2189,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I13" s="7">
-        <v>13299</v>
+        <v>64925</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2204,10 +2204,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>224</v>
       </c>
       <c r="N13" s="7">
-        <v>26195</v>
+        <v>138866</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2225,10 +2225,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>832</v>
+        <v>3929</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2240,10 +2240,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>4260</v>
+        <v>4283</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2255,10 +2255,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>5093</v>
+        <v>8211</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2276,10 +2276,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D15" s="7">
-        <v>13729</v>
+        <v>77869</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2291,10 +2291,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>17559</v>
+        <v>69208</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2306,10 +2306,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="N15" s="7">
-        <v>31288</v>
+        <v>147077</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2329,10 +2329,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D16" s="7">
-        <v>73940</v>
+        <v>88146</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2344,10 +2344,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="I16" s="7">
-        <v>64925</v>
+        <v>93566</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2359,10 +2359,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="N16" s="7">
-        <v>138866</v>
+        <v>181713</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2380,10 +2380,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>3929</v>
+        <v>1897</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2395,10 +2395,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>4283</v>
+        <v>2423</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2410,10 +2410,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>8211</v>
+        <v>4319</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2431,10 +2431,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>77869</v>
+        <v>90043</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2446,10 +2446,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I18" s="7">
-        <v>69208</v>
+        <v>95989</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2461,10 +2461,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N18" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2649,7 +2649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC551E2-1C7F-409B-86B0-934497354E77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323BE0C8-13DB-4B4B-BBF8-D698BC48095D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2767,49 +2767,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>162</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>110582</v>
+        <v>13040</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12221</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="7">
-        <v>164</v>
-      </c>
-      <c r="I4" s="7">
-        <v>108606</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>25262</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M4" s="7">
-        <v>326</v>
-      </c>
-      <c r="N4" s="7">
-        <v>219190</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,49 +2818,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4124</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>669</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>669</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3993</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>8116</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,10 +2869,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>114706</v>
+        <v>13040</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2884,10 +2884,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>112599</v>
+        <v>12890</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2899,10 +2899,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N6" s="7">
-        <v>227306</v>
+        <v>25931</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2928,13 +2928,13 @@
         <v>58797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -2943,13 +2943,13 @@
         <v>58939</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>164</v>
@@ -2958,13 +2958,13 @@
         <v>117736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,13 +2979,13 @@
         <v>3405</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2994,13 +2994,13 @@
         <v>2088</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3009,13 +3009,13 @@
         <v>5493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,49 +3077,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="D10" s="7">
-        <v>91300</v>
+        <v>110582</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7">
+        <v>164</v>
+      </c>
+      <c r="I10" s="7">
+        <v>108606</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="7">
+        <v>326</v>
+      </c>
+      <c r="N10" s="7">
+        <v>219190</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H10" s="7">
-        <v>114</v>
-      </c>
-      <c r="I10" s="7">
-        <v>88348</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M10" s="7">
-        <v>238</v>
-      </c>
-      <c r="N10" s="7">
-        <v>179647</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,49 +3128,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>5001</v>
+        <v>4124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>4629</v>
+        <v>3993</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M11" s="7">
+        <v>12</v>
+      </c>
+      <c r="N11" s="7">
+        <v>8116</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7">
-        <v>9630</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D12" s="7">
-        <v>96301</v>
+        <v>114706</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3194,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="I12" s="7">
-        <v>92977</v>
+        <v>112599</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>251</v>
+        <v>338</v>
       </c>
       <c r="N12" s="7">
-        <v>189277</v>
+        <v>227306</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3232,49 +3232,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="D13" s="7">
-        <v>13040</v>
+        <v>78492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>110</v>
+      </c>
+      <c r="I13" s="7">
+        <v>70963</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12221</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>231</v>
       </c>
       <c r="N13" s="7">
-        <v>25262</v>
+        <v>149455</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,49 +3283,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1261</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>177</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>669</v>
+        <v>3534</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>669</v>
+        <v>4795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="D15" s="7">
-        <v>13040</v>
+        <v>79753</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3349,10 +3349,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="I15" s="7">
-        <v>12890</v>
+        <v>74497</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="N15" s="7">
-        <v>25931</v>
+        <v>154250</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3387,49 +3387,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D16" s="7">
-        <v>78492</v>
+        <v>91300</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I16" s="7">
-        <v>70963</v>
+        <v>88348</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N16" s="7">
-        <v>149455</v>
+        <v>179647</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,25 +3438,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>1261</v>
+        <v>5001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>3534</v>
+        <v>4629</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>190</v>
@@ -3465,22 +3465,22 @@
         <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M17" s="7">
+        <v>13</v>
+      </c>
+      <c r="N17" s="7">
+        <v>9630</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="M17" s="7">
-        <v>7</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4795</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,10 +3489,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7">
-        <v>79753</v>
+        <v>96301</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3504,10 +3504,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7">
-        <v>74497</v>
+        <v>92977</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3519,10 +3519,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N18" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3707,7 +3707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0F7435-80F7-477A-BD9A-A2C4726815FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109BDAB9-D9AC-4F4F-9C02-B5D749F40052}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3825,49 +3825,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>106789</v>
+        <v>15477</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>12942</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="7">
-        <v>160</v>
-      </c>
-      <c r="I4" s="7">
-        <v>103590</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>28419</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M4" s="7">
-        <v>314</v>
-      </c>
-      <c r="N4" s="7">
-        <v>210378</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,49 +3876,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>1803</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2060</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2060</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3593</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M5" s="7">
-        <v>9</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5396</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,10 +3927,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>157</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>108592</v>
+        <v>15477</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3942,10 +3942,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>166</v>
+        <v>16</v>
       </c>
       <c r="I6" s="7">
-        <v>107183</v>
+        <v>15002</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3957,10 +3957,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>323</v>
+        <v>34</v>
       </c>
       <c r="N6" s="7">
-        <v>215774</v>
+        <v>30479</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3986,13 +3986,13 @@
         <v>55098</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -4001,10 +4001,10 @@
         <v>51926</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>197</v>
@@ -4016,13 +4016,13 @@
         <v>107025</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4037,13 @@
         <v>4372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4052,13 +4052,13 @@
         <v>3912</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>205</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -4067,13 +4067,13 @@
         <v>8283</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,49 +4135,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D10" s="7">
-        <v>105331</v>
+        <v>106789</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H10" s="7">
+        <v>160</v>
+      </c>
+      <c r="I10" s="7">
+        <v>103590</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="7">
+        <v>314</v>
+      </c>
+      <c r="N10" s="7">
+        <v>210378</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="7">
-        <v>143</v>
-      </c>
-      <c r="I10" s="7">
-        <v>107913</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M10" s="7">
-        <v>286</v>
-      </c>
-      <c r="N10" s="7">
-        <v>213244</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,49 +4186,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>1426</v>
+        <v>1803</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3593</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M11" s="7">
+        <v>9</v>
+      </c>
+      <c r="N11" s="7">
+        <v>5396</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1094</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2520</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,10 +4237,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D12" s="7">
-        <v>106757</v>
+        <v>108592</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4252,10 +4252,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>109007</v>
+        <v>107183</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4267,10 +4267,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="N12" s="7">
-        <v>215764</v>
+        <v>215774</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4290,49 +4290,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D13" s="7">
-        <v>15477</v>
+        <v>74751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="7">
+        <v>114</v>
+      </c>
+      <c r="I13" s="7">
+        <v>72413</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12942</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>222</v>
+      </c>
+      <c r="N13" s="7">
+        <v>147165</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="7">
-        <v>32</v>
-      </c>
-      <c r="N13" s="7">
-        <v>28419</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,49 +4341,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>2060</v>
+        <v>3175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>2060</v>
+        <v>5286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,10 +4392,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7">
-        <v>15477</v>
+        <v>76863</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4407,10 +4407,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I15" s="7">
-        <v>15002</v>
+        <v>75588</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4422,10 +4422,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="N15" s="7">
-        <v>30479</v>
+        <v>152451</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4445,49 +4445,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D16" s="7">
-        <v>74751</v>
+        <v>105331</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="I16" s="7">
-        <v>72413</v>
+        <v>107913</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="N16" s="7">
-        <v>147165</v>
+        <v>213244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,40 +4496,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2112</v>
+        <v>1426</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>3175</v>
+        <v>1094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>286</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>5286</v>
+        <v>2520</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>287</v>
@@ -4547,10 +4547,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D18" s="7">
-        <v>76863</v>
+        <v>106757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4562,10 +4562,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="I18" s="7">
-        <v>75588</v>
+        <v>109007</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4577,10 +4577,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N18" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4609,7 +4609,7 @@
         <v>290</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>291</v>
@@ -4663,7 +4663,7 @@
         <v>298</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -4765,7 +4765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211FB6D5-B3ED-4927-81BF-76665408CB2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D33157-8A07-459C-8442-9BB4F47223B3}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4883,49 +4883,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>162303</v>
+        <v>6505</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="7">
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9519</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="7">
+        <v>24</v>
+      </c>
+      <c r="N4" s="7">
+        <v>16023</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H4" s="7">
-        <v>159</v>
-      </c>
-      <c r="I4" s="7">
-        <v>115199</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M4" s="7">
-        <v>365</v>
-      </c>
-      <c r="N4" s="7">
-        <v>277501</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>312</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,49 +4934,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4647</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>314</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>3301</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>317</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>7948</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,10 +4985,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>166950</v>
+        <v>6505</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5000,10 +5000,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="I6" s="7">
-        <v>118500</v>
+        <v>9519</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5015,10 +5015,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>285449</v>
+        <v>16023</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5044,13 +5044,13 @@
         <v>70756</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
         <v>89</v>
@@ -5062,10 +5062,10 @@
         <v>196</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M7" s="7">
         <v>171</v>
@@ -5074,13 +5074,13 @@
         <v>129834</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5095,13 @@
         <v>996</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5113,10 +5113,10 @@
         <v>206</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5125,13 +5125,13 @@
         <v>4440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,49 +5193,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>132</v>
+        <v>206</v>
       </c>
       <c r="D10" s="7">
-        <v>103419</v>
+        <v>162303</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="I10" s="7">
-        <v>103192</v>
+        <v>115199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>72</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
-        <v>270</v>
+        <v>365</v>
       </c>
       <c r="N10" s="7">
-        <v>206611</v>
+        <v>277501</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +5244,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4356</v>
+        <v>4647</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>1005</v>
+        <v>3301</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>5361</v>
+        <v>7948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,10 +5295,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="D12" s="7">
-        <v>107775</v>
+        <v>166950</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5310,10 +5310,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I12" s="7">
-        <v>104197</v>
+        <v>118500</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5325,10 +5325,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>277</v>
+        <v>374</v>
       </c>
       <c r="N12" s="7">
-        <v>211972</v>
+        <v>285449</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5348,49 +5348,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>125</v>
       </c>
       <c r="D13" s="7">
-        <v>6505</v>
+        <v>106057</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>30</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="I13" s="7">
-        <v>9519</v>
+        <v>104164</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="N13" s="7">
-        <v>16023</v>
+        <v>210220</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>30</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +5399,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>5764</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1122</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>351</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>6887</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,10 +5450,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7">
-        <v>6505</v>
+        <v>111821</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5465,10 +5465,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I15" s="7">
-        <v>9519</v>
+        <v>105286</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5480,10 +5480,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>24</v>
+        <v>270</v>
       </c>
       <c r="N15" s="7">
-        <v>16023</v>
+        <v>217107</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5503,49 +5503,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D16" s="7">
-        <v>106057</v>
+        <v>103419</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>104164</v>
+        <v>103192</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N16" s="7">
-        <v>210220</v>
+        <v>206611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +5554,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>5764</v>
+        <v>4356</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>1122</v>
+        <v>1005</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>6887</v>
+        <v>5361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>368</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,10 +5605,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D18" s="7">
-        <v>111821</v>
+        <v>107775</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5620,10 +5620,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I18" s="7">
-        <v>105286</v>
+        <v>104197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5635,10 +5635,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N18" s="7">
-        <v>217107</v>
+        <v>211972</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP19C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881146A4-F9AC-4554-AB8A-0C2914130256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11751556-F328-4379-8251-D8659BC164A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4AA0941A-6BA2-415A-80C6-310E0715230B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0EC42D53-CADF-4D87-9EEA-03D128C72E02}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="378">
   <si>
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -71,13 +71,43 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>70,52%</t>
+    <t>64,87%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,49 +116,19 @@
     <t>75,74%</t>
   </si>
   <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>83,72%</t>
   </si>
   <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,46 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>96,44%</t>
   </si>
   <si>
-    <t>90,98%</t>
+    <t>90,39%</t>
   </si>
   <si>
     <t>98,96%</t>
@@ -158,1048 +185,994 @@
     <t>94,51%</t>
   </si>
   <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
     <t>94,68%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
     <t>94,95%</t>
   </si>
   <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
+    <t>98,23%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>88,05%</t>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>67,47%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>97,36%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2015 (Tasa respuesta: 48,73%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
   </si>
   <si>
     <t>94,49%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2015 (Tasa respuesta: 48,73%)</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>94,24%</t>
   </si>
   <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
   </si>
   <si>
     <t>94,84%</t>
   </si>
   <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>98,93%</t>
   </si>
   <si>
-    <t>96,16%</t>
+    <t>96,33%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>90,82%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
     <t>97,47%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>97,78%</t>
   </si>
   <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
   </si>
   <si>
     <t>97,15%</t>
   </si>
   <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1183,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1306,39 +1279,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1390,7 +1363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1501,13 +1474,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1516,6 +1482,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1580,19 +1553,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068EC481-AC7A-4FD3-9051-06BACA435D1D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47561258-F58D-4B64-9C05-47E260BCC420}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1709,10 +1702,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>12897</v>
+        <v>832</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1724,10 +1717,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>13299</v>
+        <v>4260</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1739,10 +1732,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>26195</v>
+        <v>5093</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1760,10 +1753,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>832</v>
+        <v>12897</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1775,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>4260</v>
+        <v>13299</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1790,10 +1783,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>5093</v>
+        <v>26195</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1864,10 +1857,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>63585</v>
+        <v>4874</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1879,10 +1872,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>56041</v>
+        <v>2072</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1894,10 +1887,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="N7" s="7">
-        <v>119628</v>
+        <v>6945</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1915,10 +1908,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D8" s="7">
-        <v>4874</v>
+        <v>63585</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1930,10 +1923,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>2072</v>
+        <v>56041</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1945,10 +1938,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="N8" s="7">
-        <v>6945</v>
+        <v>119628</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2019,10 +2012,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>105689</v>
+        <v>5942</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2034,10 +2027,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>103063</v>
+        <v>6998</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2049,10 +2042,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>208752</v>
+        <v>12940</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2070,10 +2063,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="D11" s="7">
-        <v>5942</v>
+        <v>105689</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2085,10 +2078,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="I11" s="7">
-        <v>6998</v>
+        <v>103063</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2100,10 +2093,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="N11" s="7">
-        <v>12940</v>
+        <v>208752</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2174,10 +2167,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>73940</v>
+        <v>3929</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2186,37 +2179,37 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4283</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>108</v>
-      </c>
-      <c r="I13" s="7">
-        <v>64925</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>13</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8211</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>224</v>
-      </c>
-      <c r="N13" s="7">
-        <v>138866</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,49 +2218,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="D14" s="7">
-        <v>3929</v>
+        <v>73940</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="7">
+        <v>108</v>
+      </c>
+      <c r="I14" s="7">
+        <v>64925</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4283</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>224</v>
+      </c>
+      <c r="N14" s="7">
+        <v>138866</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="7">
-        <v>13</v>
-      </c>
-      <c r="N14" s="7">
-        <v>8211</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,55 +2316,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>88146</v>
+        <v>1897</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2423</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>6</v>
+      </c>
+      <c r="N16" s="7">
+        <v>4319</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>121</v>
-      </c>
-      <c r="I16" s="7">
-        <v>93566</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>249</v>
-      </c>
-      <c r="N16" s="7">
-        <v>181713</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,49 +2373,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="D17" s="7">
-        <v>1897</v>
+        <v>88146</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
+        <v>121</v>
+      </c>
+      <c r="I17" s="7">
+        <v>93566</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>249</v>
+      </c>
+      <c r="N17" s="7">
+        <v>181713</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2423</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>6</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4319</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,49 +2477,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>519</v>
+        <v>26</v>
       </c>
       <c r="D19" s="7">
-        <v>344258</v>
+        <v>17473</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="7">
+        <v>29</v>
+      </c>
+      <c r="I19" s="7">
+        <v>20035</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>55</v>
+      </c>
+      <c r="N19" s="7">
+        <v>37508</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="7">
-        <v>493</v>
-      </c>
-      <c r="I19" s="7">
-        <v>330895</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1012</v>
-      </c>
-      <c r="N19" s="7">
-        <v>675153</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,49 +2528,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>26</v>
+        <v>519</v>
       </c>
       <c r="D20" s="7">
-        <v>17473</v>
+        <v>344258</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H20" s="7">
+        <v>493</v>
+      </c>
+      <c r="I20" s="7">
+        <v>330895</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1012</v>
+      </c>
+      <c r="N20" s="7">
+        <v>675153</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="7">
-        <v>29</v>
-      </c>
-      <c r="I20" s="7">
-        <v>20035</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>55</v>
-      </c>
-      <c r="N20" s="7">
-        <v>37508</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,6 +2622,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2649,8 +2647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323BE0C8-13DB-4B4B-BBF8-D698BC48095D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCF6D89-7C23-44D3-875B-1514A966ADB9}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2666,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2767,49 +2765,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>13040</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>669</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="7">
-        <v>14</v>
-      </c>
-      <c r="I4" s="7">
-        <v>12221</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>669</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>28</v>
-      </c>
-      <c r="N4" s="7">
-        <v>25262</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2818,49 +2816,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>13040</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12221</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="7">
+        <v>28</v>
+      </c>
+      <c r="N5" s="7">
+        <v>25262</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>669</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>669</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,49 +2920,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>58797</v>
+        <v>3405</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2088</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="7">
-        <v>81</v>
-      </c>
-      <c r="I7" s="7">
-        <v>58939</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>5493</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="7">
-        <v>164</v>
-      </c>
-      <c r="N7" s="7">
-        <v>117736</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,49 +2971,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="D8" s="7">
-        <v>3405</v>
+        <v>58797</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>81</v>
+      </c>
+      <c r="I8" s="7">
+        <v>58939</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2088</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>164</v>
+      </c>
+      <c r="N8" s="7">
+        <v>117736</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="7">
-        <v>8</v>
-      </c>
-      <c r="N8" s="7">
-        <v>5493</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,40 +3075,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>162</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>110582</v>
+        <v>4124</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>6</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3993</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="7">
-        <v>164</v>
-      </c>
-      <c r="I10" s="7">
-        <v>108606</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="M10" s="7">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>219190</v>
+        <v>8116</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>158</v>
@@ -3128,10 +3126,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="D11" s="7">
-        <v>4124</v>
+        <v>110582</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>161</v>
@@ -3143,34 +3141,34 @@
         <v>163</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>164</v>
       </c>
       <c r="I11" s="7">
-        <v>3993</v>
+        <v>108606</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="N11" s="7">
-        <v>8116</v>
+        <v>219190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3232,49 +3230,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>78492</v>
+        <v>1261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>70963</v>
+        <v>3534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>173</v>
       </c>
       <c r="M13" s="7">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>149455</v>
+        <v>4795</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,40 +3281,40 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="D14" s="7">
-        <v>1261</v>
+        <v>78492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="I14" s="7">
-        <v>3534</v>
+        <v>70963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="N14" s="7">
-        <v>4795</v>
+        <v>149455</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>181</v>
@@ -3325,7 +3323,7 @@
         <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3381,55 +3379,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>91300</v>
+        <v>5001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>6</v>
       </c>
       <c r="I16" s="7">
-        <v>88348</v>
+        <v>4629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
-        <v>238</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>179647</v>
+        <v>9630</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,49 +3436,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7">
-        <v>5001</v>
+        <v>91300</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7">
-        <v>4629</v>
+        <v>88348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="N17" s="7">
-        <v>9630</v>
+        <v>179647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3542,49 +3540,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>504</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>352212</v>
+        <v>13790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
-        <v>483</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>339079</v>
+        <v>14912</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
-        <v>987</v>
+        <v>41</v>
       </c>
       <c r="N19" s="7">
-        <v>691289</v>
+        <v>28703</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,49 +3591,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>20</v>
+        <v>504</v>
       </c>
       <c r="D20" s="7">
-        <v>13790</v>
+        <v>352212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
-        <v>21</v>
+        <v>483</v>
       </c>
       <c r="I20" s="7">
-        <v>14912</v>
+        <v>339079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
-        <v>41</v>
+        <v>987</v>
       </c>
       <c r="N20" s="7">
-        <v>28703</v>
+        <v>691289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,6 +3685,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3707,8 +3710,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109BDAB9-D9AC-4F4F-9C02-B5D749F40052}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31D072-0759-4654-AE1F-E83FC62339A8}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3724,7 +3727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3825,49 +3828,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>15477</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>12942</v>
+        <v>2060</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>28419</v>
+        <v>2060</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,49 +3879,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>15477</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>2060</v>
+        <v>12942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>2060</v>
+        <v>28419</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,49 +3983,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>55098</v>
+        <v>4372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>51926</v>
+        <v>3912</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>107025</v>
+        <v>8283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,49 +4034,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D8" s="7">
-        <v>4372</v>
+        <v>55098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>3912</v>
+        <v>51926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="N8" s="7">
-        <v>8283</v>
+        <v>107025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,49 +4138,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>106789</v>
+        <v>1803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>103590</v>
+        <v>3593</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
-        <v>314</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>210378</v>
+        <v>5396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,49 +4189,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="D11" s="7">
-        <v>1803</v>
+        <v>106789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="I11" s="7">
-        <v>3593</v>
+        <v>103590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="N11" s="7">
-        <v>5396</v>
+        <v>210378</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,49 +4293,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>74751</v>
+        <v>2112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>72413</v>
+        <v>3175</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>147165</v>
+        <v>5286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,46 +4344,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D14" s="7">
-        <v>2112</v>
+        <v>74751</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="I14" s="7">
-        <v>3175</v>
+        <v>72413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="N14" s="7">
-        <v>5286</v>
+        <v>147165</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>275</v>
@@ -4439,49 +4442,49 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>105331</v>
+        <v>1426</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>107913</v>
+        <v>1094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
-        <v>286</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>213244</v>
+        <v>2520</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>281</v>
@@ -4496,49 +4499,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="D17" s="7">
-        <v>1426</v>
+        <v>105331</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>284</v>
+        <v>23</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="I17" s="7">
-        <v>1094</v>
+        <v>107913</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>285</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="7">
         <v>286</v>
       </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
       <c r="N17" s="7">
-        <v>2520</v>
+        <v>213244</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,49 +4603,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>495</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>357445</v>
+        <v>9713</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>241</v>
-      </c>
       <c r="G19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H19" s="7">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7">
+        <v>13833</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H19" s="7">
-        <v>507</v>
-      </c>
-      <c r="I19" s="7">
-        <v>348785</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="M19" s="7">
-        <v>1002</v>
+        <v>34</v>
       </c>
       <c r="N19" s="7">
-        <v>706230</v>
+        <v>23546</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>294</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>295</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,49 +4654,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>14</v>
+        <v>495</v>
       </c>
       <c r="D20" s="7">
-        <v>9713</v>
+        <v>357445</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="7">
+        <v>507</v>
+      </c>
+      <c r="I20" s="7">
+        <v>348785</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H20" s="7">
-        <v>20</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13833</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1002</v>
+      </c>
+      <c r="N20" s="7">
+        <v>706230</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="M20" s="7">
-        <v>34</v>
-      </c>
-      <c r="N20" s="7">
-        <v>23546</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="P20" s="7" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>303</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,6 +4748,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4765,8 +4773,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D33157-8A07-459C-8442-9BB4F47223B3}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD710514-3899-4417-B104-DFE5E1E60112}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4782,7 +4790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4883,49 +4891,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6505</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>30</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9519</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,49 +4942,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>6505</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9519</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,49 +5046,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>70756</v>
+        <v>996</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3444</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>89</v>
-      </c>
-      <c r="I7" s="7">
-        <v>59078</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4440</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="M7" s="7">
-        <v>171</v>
-      </c>
-      <c r="N7" s="7">
-        <v>129834</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,49 +5097,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7">
-        <v>996</v>
+        <v>70756</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>89</v>
+      </c>
+      <c r="I8" s="7">
+        <v>59078</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>3444</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>171</v>
+      </c>
+      <c r="N8" s="7">
+        <v>129834</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="M8" s="7">
-        <v>8</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4440</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,49 +5201,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>162303</v>
+        <v>4647</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3301</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H10" s="7">
-        <v>159</v>
-      </c>
-      <c r="I10" s="7">
-        <v>115199</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>9</v>
+      </c>
+      <c r="N10" s="7">
+        <v>7948</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="M10" s="7">
-        <v>365</v>
-      </c>
-      <c r="N10" s="7">
-        <v>277501</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,49 +5252,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>5</v>
+        <v>206</v>
       </c>
       <c r="D11" s="7">
-        <v>4647</v>
+        <v>162303</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>159</v>
+      </c>
+      <c r="I11" s="7">
+        <v>115199</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="H11" s="7">
-        <v>4</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3301</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>365</v>
+      </c>
+      <c r="N11" s="7">
+        <v>277501</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M11" s="7">
-        <v>9</v>
-      </c>
-      <c r="N11" s="7">
-        <v>7948</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,49 +5356,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>106057</v>
+        <v>5764</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1122</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>6887</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="H13" s="7">
-        <v>140</v>
-      </c>
-      <c r="I13" s="7">
-        <v>104164</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>265</v>
-      </c>
-      <c r="N13" s="7">
-        <v>210220</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,49 +5407,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>125</v>
       </c>
       <c r="D14" s="7">
-        <v>5764</v>
+        <v>106057</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H14" s="7">
+        <v>140</v>
+      </c>
+      <c r="I14" s="7">
+        <v>104164</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="7">
+        <v>265</v>
+      </c>
+      <c r="N14" s="7">
+        <v>210220</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1122</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="M14" s="7">
-        <v>5</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6887</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,55 +5505,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>103419</v>
+        <v>4356</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1005</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="7">
+        <v>7</v>
+      </c>
+      <c r="N16" s="7">
+        <v>5361</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="H16" s="7">
-        <v>138</v>
-      </c>
-      <c r="I16" s="7">
-        <v>103192</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>270</v>
-      </c>
-      <c r="N16" s="7">
-        <v>206611</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>360</v>
-      </c>
       <c r="P16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,49 +5562,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>132</v>
       </c>
       <c r="D17" s="7">
-        <v>4356</v>
+        <v>103419</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>151</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="I17" s="7">
-        <v>1005</v>
+        <v>103192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>23</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="N17" s="7">
-        <v>5361</v>
+        <v>206611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,49 +5666,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>554</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>449039</v>
+        <v>15764</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H19" s="7">
-        <v>541</v>
+        <v>13</v>
       </c>
       <c r="I19" s="7">
-        <v>391151</v>
+        <v>8873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
-        <v>1095</v>
+        <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>840190</v>
+        <v>24636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,49 +5717,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>16</v>
+        <v>554</v>
       </c>
       <c r="D20" s="7">
-        <v>15764</v>
+        <v>449039</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
-        <v>13</v>
+        <v>541</v>
       </c>
       <c r="I20" s="7">
-        <v>8873</v>
+        <v>391151</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M20" s="7">
-        <v>29</v>
+        <v>1095</v>
       </c>
       <c r="N20" s="7">
-        <v>24636</v>
+        <v>840190</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,6 +5811,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11751556-F328-4379-8251-D8659BC164A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{725696FC-864A-49A4-9BAF-DFDAAFEA107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0EC42D53-CADF-4D87-9EEA-03D128C72E02}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE9C62F-8422-4ACB-BB79-112837C29783}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="388">
   <si>
     <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,217 +80,223 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,13%</t>
+    <t>29,61%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
     <t>5,58%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>50,93%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>94,42%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>90,92%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -302,877 +308,901 @@
     <t>0,67%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>5,67%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2016 (Tasa respuesta: 48,73%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>3,9%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>96,1%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>97,15%</t>
   </si>
   <si>
     <t>98,17%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2015 (Tasa respuesta: 48,73%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47561258-F58D-4B64-9C05-47E260BCC420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EADE46-B2DE-4407-896A-664DB19A877C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,7 +2209,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2188,13 +2218,13 @@
         <v>4283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2203,13 +2233,13 @@
         <v>8211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,13 +2254,13 @@
         <v>73940</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -2239,13 +2269,13 @@
         <v>64925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>224</v>
@@ -2254,13 +2284,13 @@
         <v>138866</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,7 +2346,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2328,13 +2358,13 @@
         <v>1897</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2343,13 +2373,13 @@
         <v>2423</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -2358,13 +2388,13 @@
         <v>4319</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,13 +2409,13 @@
         <v>88146</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>121</v>
@@ -2394,13 +2424,13 @@
         <v>93566</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>249</v>
@@ -2409,13 +2439,13 @@
         <v>181713</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2513,13 @@
         <v>17473</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -2498,13 +2528,13 @@
         <v>20035</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>55</v>
@@ -2513,13 +2543,13 @@
         <v>37508</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2564,13 @@
         <v>344258</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>493</v>
@@ -2549,13 +2579,13 @@
         <v>330895</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>1012</v>
@@ -2564,13 +2594,13 @@
         <v>675153</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,7 +2656,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2647,7 +2677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCF6D89-7C23-44D3-875B-1514A966ADB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A76EFF0-F093-4B34-BE6D-2CB22C4A2D17}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2694,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2774,10 +2804,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2786,13 +2816,13 @@
         <v>669</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2801,13 +2831,13 @@
         <v>669</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2855,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -2837,10 +2867,10 @@
         <v>12221</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -2852,10 +2882,10 @@
         <v>25262</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -2926,13 +2956,13 @@
         <v>3405</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -2941,13 +2971,13 @@
         <v>2088</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -2956,13 +2986,13 @@
         <v>5493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +3007,13 @@
         <v>58797</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H8" s="7">
         <v>81</v>
@@ -2992,13 +3022,13 @@
         <v>58939</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>164</v>
@@ -3007,13 +3037,13 @@
         <v>117736</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3111,13 @@
         <v>4124</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -3096,13 +3126,13 @@
         <v>3993</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -3111,13 +3141,13 @@
         <v>8116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3162,13 @@
         <v>110582</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -3147,13 +3177,13 @@
         <v>108606</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M11" s="7">
         <v>326</v>
@@ -3162,13 +3192,13 @@
         <v>219190</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3266,13 @@
         <v>1261</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3251,13 +3281,13 @@
         <v>3534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3266,13 +3296,13 @@
         <v>4795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,10 +3317,10 @@
         <v>78492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -3302,13 +3332,13 @@
         <v>70963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -3317,13 +3347,13 @@
         <v>149455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3409,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3391,13 +3421,13 @@
         <v>5001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3406,13 +3436,13 @@
         <v>4629</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3421,13 +3451,13 @@
         <v>9630</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3472,13 @@
         <v>91300</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>114</v>
@@ -3457,13 +3487,13 @@
         <v>88348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>238</v>
@@ -3472,13 +3502,13 @@
         <v>179647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3576,13 @@
         <v>13790</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>21</v>
@@ -3582,7 +3612,7 @@
         <v>207</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,13 +3627,13 @@
         <v>352212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>483</v>
@@ -3612,13 +3642,13 @@
         <v>339079</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>987</v>
@@ -3627,13 +3657,13 @@
         <v>691289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31D072-0759-4654-AE1F-E83FC62339A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9001174D-312C-4B90-914C-0E45C0438FBB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3727,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3837,10 +3867,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3849,13 +3879,13 @@
         <v>2060</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3864,13 +3894,13 @@
         <v>2060</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3918,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3900,10 +3930,10 @@
         <v>12942</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>23</v>
@@ -3915,10 +3945,10 @@
         <v>28419</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>23</v>
@@ -3989,13 +4019,13 @@
         <v>4372</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -4004,13 +4034,13 @@
         <v>3912</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -4019,13 +4049,13 @@
         <v>8283</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4070,13 @@
         <v>55098</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>76</v>
@@ -4055,13 +4085,13 @@
         <v>51926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>148</v>
@@ -4070,13 +4100,13 @@
         <v>107025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4174,13 @@
         <v>1803</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4159,13 +4189,13 @@
         <v>3593</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4174,13 +4204,13 @@
         <v>5396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4225,13 @@
         <v>106789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>160</v>
@@ -4210,13 +4240,13 @@
         <v>103590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>314</v>
@@ -4225,13 +4255,13 @@
         <v>210378</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4329,13 @@
         <v>2112</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4314,13 +4344,13 @@
         <v>3175</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4329,13 +4359,13 @@
         <v>5286</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4380,13 @@
         <v>74751</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>114</v>
@@ -4365,13 +4395,13 @@
         <v>72413</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>222</v>
@@ -4380,13 +4410,13 @@
         <v>147165</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,7 +4472,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4484,13 +4514,13 @@
         <v>2520</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,10 +4565,10 @@
         <v>213244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>288</v>
@@ -4615,7 +4645,7 @@
         <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4624,13 +4654,13 @@
         <v>13833</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4639,13 +4669,13 @@
         <v>23546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>296</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4690,13 @@
         <v>357445</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H20" s="7">
         <v>507</v>
@@ -4675,13 +4705,13 @@
         <v>348785</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>1002</v>
@@ -4690,13 +4720,13 @@
         <v>706230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,7 +4782,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4773,7 +4803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD710514-3899-4417-B104-DFE5E1E60112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78403FC-9F38-44F7-9EBB-9628BDE395A3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4790,7 +4820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4900,10 +4930,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4915,10 +4945,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4930,10 +4960,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,7 +4981,7 @@
         <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -4966,7 +4996,7 @@
         <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4981,7 +5011,7 @@
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -5052,13 +5082,13 @@
         <v>996</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5067,13 +5097,13 @@
         <v>3444</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -5082,13 +5112,13 @@
         <v>4440</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,10 +5133,10 @@
         <v>70756</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>23</v>
@@ -5118,13 +5148,13 @@
         <v>59078</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>171</v>
@@ -5133,13 +5163,13 @@
         <v>129834</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5237,13 @@
         <v>4647</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5222,13 +5252,13 @@
         <v>3301</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5237,13 +5267,13 @@
         <v>7948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5288,13 @@
         <v>162303</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H11" s="7">
         <v>159</v>
@@ -5273,13 +5303,13 @@
         <v>115199</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>365</v>
@@ -5288,13 +5318,13 @@
         <v>277501</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5392,13 @@
         <v>5764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -5377,13 +5407,13 @@
         <v>1122</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5392,13 +5422,13 @@
         <v>6887</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5443,13 @@
         <v>106057</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>140</v>
@@ -5428,10 +5458,10 @@
         <v>104164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -5443,13 +5473,13 @@
         <v>210220</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5535,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5517,13 +5547,13 @@
         <v>4356</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>141</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5532,13 +5562,13 @@
         <v>1005</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5547,13 +5577,13 @@
         <v>5361</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>36</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5598,13 @@
         <v>103419</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -5583,10 +5613,10 @@
         <v>103192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>23</v>
@@ -5598,13 +5628,13 @@
         <v>206611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5702,13 @@
         <v>15764</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -5687,13 +5717,13 @@
         <v>8873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>364</v>
+        <v>158</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -5702,13 +5732,13 @@
         <v>24636</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>368</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5753,13 @@
         <v>449039</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>541</v>
@@ -5738,13 +5768,13 @@
         <v>391151</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>374</v>
+        <v>168</v>
       </c>
       <c r="M20" s="7">
         <v>1095</v>
@@ -5753,13 +5783,13 @@
         <v>840190</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,7 +5845,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP19C08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{725696FC-864A-49A4-9BAF-DFDAAFEA107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F8347FB-6156-4F9B-9BCA-EFB5BF485688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE9C62F-8422-4ACB-BB79-112837C29783}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F1EEF9DC-CB50-43CF-A6A7-B49A94362315}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="388">
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2007 (Tasa respuesta: 50,71%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="346">
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2007 (Tasa respuesta: 50,71%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1141 +68,1015 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,06%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2012 (Tasa respuesta: 48,98%)</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2016 (Tasa respuesta: 48,73%)</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por selladores o aplicación de flúor en 2023 (Tasa respuesta: 58,54%)</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2012 (Tasa respuesta: 48,98%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2016 (Tasa respuesta: 48,73%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por selladores o aplicación de fluor en 2023 (Tasa respuesta: 58,54%)</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1488,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EADE46-B2DE-4407-896A-664DB19A877C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289A6BF6-60B5-4E54-A4FF-2C67E359206C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1732,10 +1606,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>832</v>
+        <v>6332</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1747,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>4260</v>
+        <v>5706</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1762,10 +1636,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>5093</v>
+        <v>12038</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1783,10 +1657,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="D5" s="7">
-        <v>12897</v>
+        <v>69341</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1798,10 +1672,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="I5" s="7">
-        <v>13299</v>
+        <v>76482</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1813,10 +1687,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="N5" s="7">
-        <v>26195</v>
+        <v>145823</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1834,10 +1708,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="D6" s="7">
-        <v>13729</v>
+        <v>75673</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1849,10 +1723,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I6" s="7">
-        <v>17559</v>
+        <v>82188</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1864,10 +1738,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="N6" s="7">
-        <v>31288</v>
+        <v>157861</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1887,10 +1761,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>4874</v>
+        <v>6998</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1902,10 +1776,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>2072</v>
+        <v>5942</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1917,10 +1791,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>6945</v>
+        <v>12940</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1938,10 +1812,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="D8" s="7">
-        <v>63585</v>
+        <v>103063</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1953,10 +1827,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="I8" s="7">
-        <v>56041</v>
+        <v>105689</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1968,10 +1842,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>181</v>
+        <v>324</v>
       </c>
       <c r="N8" s="7">
-        <v>119628</v>
+        <v>208752</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1989,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D9" s="7">
-        <v>68459</v>
+        <v>110061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2004,10 +1878,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="I9" s="7">
-        <v>58113</v>
+        <v>111631</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2019,10 +1893,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>191</v>
+        <v>344</v>
       </c>
       <c r="N9" s="7">
-        <v>126573</v>
+        <v>221692</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2042,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5942</v>
+        <v>4283</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2057,10 +1931,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>6998</v>
+        <v>3929</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2072,10 +1946,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>12940</v>
+        <v>8211</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2093,10 +1967,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="D11" s="7">
-        <v>105689</v>
+        <v>64925</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2108,10 +1982,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="I11" s="7">
-        <v>103063</v>
+        <v>73940</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2123,10 +1997,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="N11" s="7">
-        <v>208752</v>
+        <v>138866</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2144,10 +2018,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>111631</v>
+        <v>69208</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2159,10 +2033,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="I12" s="7">
-        <v>110061</v>
+        <v>77869</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2174,10 +2048,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N12" s="7">
-        <v>221692</v>
+        <v>147077</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2197,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>3929</v>
+        <v>2423</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2212,10 +2086,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>4283</v>
+        <v>1897</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2227,19 +2101,19 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>8211</v>
+        <v>4319</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,49 +2122,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D14" s="7">
-        <v>73940</v>
+        <v>93566</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="I14" s="7">
-        <v>64925</v>
+        <v>88146</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="N14" s="7">
-        <v>138866</v>
+        <v>181713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,10 +2173,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="7">
-        <v>77869</v>
+        <v>95989</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2314,10 +2188,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>69208</v>
+        <v>90043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2329,10 +2203,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="N15" s="7">
-        <v>147077</v>
+        <v>186032</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2346,55 +2220,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>1897</v>
+        <v>20035</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I16" s="7">
-        <v>2423</v>
+        <v>17473</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="N16" s="7">
-        <v>4319</v>
+        <v>37508</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,49 +2277,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>128</v>
+        <v>493</v>
       </c>
       <c r="D17" s="7">
-        <v>88146</v>
+        <v>330895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>121</v>
+        <v>519</v>
       </c>
       <c r="I17" s="7">
-        <v>93566</v>
+        <v>344258</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>249</v>
+        <v>1012</v>
       </c>
       <c r="N17" s="7">
-        <v>181713</v>
+        <v>675153</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2454,10 +2328,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>522</v>
       </c>
       <c r="D18" s="7">
-        <v>90043</v>
+        <v>350930</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2469,10 +2343,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>124</v>
+        <v>545</v>
       </c>
       <c r="I18" s="7">
-        <v>95989</v>
+        <v>361731</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2484,10 +2358,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>255</v>
+        <v>1067</v>
       </c>
       <c r="N18" s="7">
-        <v>186032</v>
+        <v>712661</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2500,171 +2374,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>26</v>
-      </c>
-      <c r="D19" s="7">
-        <v>17473</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>29</v>
-      </c>
-      <c r="I19" s="7">
-        <v>20035</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>55</v>
-      </c>
-      <c r="N19" s="7">
-        <v>37508</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>519</v>
-      </c>
-      <c r="D20" s="7">
-        <v>344258</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>493</v>
-      </c>
-      <c r="I20" s="7">
-        <v>330895</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1012</v>
-      </c>
-      <c r="N20" s="7">
-        <v>675153</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>545</v>
-      </c>
-      <c r="D21" s="7">
-        <v>361731</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>522</v>
-      </c>
-      <c r="I21" s="7">
-        <v>350930</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1067</v>
-      </c>
-      <c r="N21" s="7">
-        <v>712661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2677,8 +2395,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A76EFF0-F093-4B34-BE6D-2CB22C4A2D17}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7862691-75E3-4061-8F32-64C1BE6503CD}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2694,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2795,49 +2513,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>2757</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>669</v>
+        <v>3405</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>669</v>
+        <v>6162</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,49 +2564,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D5" s="7">
-        <v>13040</v>
+        <v>71161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="I5" s="7">
-        <v>12221</v>
+        <v>71837</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="N5" s="7">
-        <v>25262</v>
+        <v>142997</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2897,10 +2615,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D6" s="7">
-        <v>13040</v>
+        <v>73918</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2912,10 +2630,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="I6" s="7">
-        <v>12890</v>
+        <v>75242</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2927,10 +2645,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="N6" s="7">
-        <v>25931</v>
+        <v>149159</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2950,49 +2668,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3405</v>
+        <v>3993</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>2088</v>
+        <v>4124</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>5493</v>
+        <v>8116</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,49 +2719,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>58797</v>
+        <v>108606</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>58939</v>
+        <v>110582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="N8" s="7">
-        <v>117736</v>
+        <v>219190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,10 +2770,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="D9" s="7">
-        <v>62202</v>
+        <v>112599</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3067,10 +2785,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="I9" s="7">
-        <v>61027</v>
+        <v>114706</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3082,10 +2800,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>172</v>
+        <v>338</v>
       </c>
       <c r="N9" s="7">
-        <v>123229</v>
+        <v>227306</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3105,49 +2823,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>4124</v>
+        <v>3534</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>3993</v>
+        <v>1261</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>8116</v>
+        <v>4795</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,49 +2874,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7">
-        <v>110582</v>
+        <v>70963</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>108606</v>
+        <v>78492</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>326</v>
+        <v>231</v>
       </c>
       <c r="N11" s="7">
-        <v>219190</v>
+        <v>149455</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,10 +2925,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>168</v>
+        <v>115</v>
       </c>
       <c r="D12" s="7">
-        <v>114706</v>
+        <v>74497</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3222,10 +2940,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="I12" s="7">
-        <v>112599</v>
+        <v>79753</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3237,10 +2955,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>227306</v>
+        <v>154250</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3260,49 +2978,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>1261</v>
+        <v>4629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>3534</v>
+        <v>5001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>4795</v>
+        <v>9630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,49 +3029,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D14" s="7">
-        <v>78492</v>
+        <v>88348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>23</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="I14" s="7">
-        <v>70963</v>
+        <v>91300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="M14" s="7">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="N14" s="7">
-        <v>149455</v>
+        <v>179647</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,10 +3080,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D15" s="7">
-        <v>79753</v>
+        <v>92977</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3377,10 +3095,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="I15" s="7">
-        <v>74497</v>
+        <v>96301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3392,10 +3110,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>154250</v>
+        <v>189277</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3409,55 +3127,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>5001</v>
+        <v>14912</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
-        <v>4629</v>
+        <v>13790</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N16" s="7">
-        <v>9630</v>
+        <v>28703</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,49 +3184,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>124</v>
+        <v>483</v>
       </c>
       <c r="D17" s="7">
-        <v>91300</v>
+        <v>339079</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>114</v>
+        <v>504</v>
       </c>
       <c r="I17" s="7">
-        <v>88348</v>
+        <v>352212</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>238</v>
+        <v>987</v>
       </c>
       <c r="N17" s="7">
-        <v>179647</v>
+        <v>691290</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,10 +3235,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="D18" s="7">
-        <v>96301</v>
+        <v>353991</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3532,10 +3250,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>120</v>
+        <v>524</v>
       </c>
       <c r="I18" s="7">
-        <v>92977</v>
+        <v>366002</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3547,10 +3265,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>1028</v>
       </c>
       <c r="N18" s="7">
-        <v>189277</v>
+        <v>719993</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3563,171 +3281,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7">
-        <v>13790</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="7">
-        <v>21</v>
-      </c>
-      <c r="I19" s="7">
-        <v>14912</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" s="7">
-        <v>41</v>
-      </c>
-      <c r="N19" s="7">
-        <v>28703</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>504</v>
-      </c>
-      <c r="D20" s="7">
-        <v>352212</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="7">
-        <v>483</v>
-      </c>
-      <c r="I20" s="7">
-        <v>339079</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M20" s="7">
-        <v>987</v>
-      </c>
-      <c r="N20" s="7">
-        <v>691289</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>524</v>
-      </c>
-      <c r="D21" s="7">
-        <v>366002</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>504</v>
-      </c>
-      <c r="I21" s="7">
-        <v>353991</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1028</v>
-      </c>
-      <c r="N21" s="7">
-        <v>719992</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3740,8 +3302,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9001174D-312C-4B90-914C-0E45C0438FBB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DF20A8-2EAC-4E3E-9D2B-218D73A5619D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3757,7 +3319,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3858,49 +3420,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5972</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>2060</v>
+        <v>4372</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>2060</v>
+        <v>10344</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,49 +3471,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="D5" s="7">
-        <v>15477</v>
+        <v>64869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I5" s="7">
-        <v>12942</v>
+        <v>70575</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="N5" s="7">
-        <v>28419</v>
+        <v>135443</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,10 +3522,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>15477</v>
+        <v>70841</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3975,10 +3537,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I6" s="7">
-        <v>15002</v>
+        <v>74947</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3990,10 +3552,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="N6" s="7">
-        <v>30479</v>
+        <v>145787</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4016,46 +3578,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>4372</v>
+        <v>3593</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3912</v>
+        <v>1803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>8283</v>
+        <v>5396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,49 +3626,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="D8" s="7">
-        <v>55098</v>
+        <v>103590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="I8" s="7">
-        <v>51926</v>
+        <v>106789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>148</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>107025</v>
+        <v>210378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,10 +3677,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="D9" s="7">
-        <v>59470</v>
+        <v>107183</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4130,10 +3692,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="I9" s="7">
-        <v>55838</v>
+        <v>108592</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4145,10 +3707,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>160</v>
+        <v>323</v>
       </c>
       <c r="N9" s="7">
-        <v>115308</v>
+        <v>215774</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4168,49 +3730,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3175</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
-        <v>1803</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
       <c r="I10" s="7">
-        <v>3593</v>
+        <v>2112</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N10" s="7">
-        <v>5396</v>
+        <v>5286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,49 +3781,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>106789</v>
+        <v>72413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="I11" s="7">
-        <v>103590</v>
+        <v>74751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="N11" s="7">
-        <v>210378</v>
+        <v>147165</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,10 +3832,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>108592</v>
+        <v>75588</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4285,10 +3847,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="I12" s="7">
-        <v>107183</v>
+        <v>76863</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4300,10 +3862,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>323</v>
+        <v>230</v>
       </c>
       <c r="N12" s="7">
-        <v>215774</v>
+        <v>152451</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4323,49 +3885,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1094</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1426</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
-        <v>2112</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3175</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
       <c r="N13" s="7">
-        <v>5286</v>
+        <v>2520</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,49 +3936,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D14" s="7">
-        <v>74751</v>
+        <v>107913</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="I14" s="7">
-        <v>72413</v>
+        <v>105331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="N14" s="7">
-        <v>147165</v>
+        <v>213244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,10 +3987,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="D15" s="7">
-        <v>76863</v>
+        <v>109007</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4440,10 +4002,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="I15" s="7">
-        <v>75588</v>
+        <v>106757</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4455,10 +4017,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>230</v>
+        <v>289</v>
       </c>
       <c r="N15" s="7">
-        <v>152451</v>
+        <v>215764</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4472,55 +4034,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>1426</v>
+        <v>13833</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>1094</v>
+        <v>9713</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="N16" s="7">
-        <v>2520</v>
+        <v>23546</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,49 +4091,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>143</v>
+        <v>507</v>
       </c>
       <c r="D17" s="7">
-        <v>105331</v>
+        <v>348785</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="I17" s="7">
-        <v>107913</v>
+        <v>357445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>286</v>
+        <v>1002</v>
       </c>
       <c r="N17" s="7">
-        <v>213244</v>
+        <v>706230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>44</v>
+        <v>271</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,10 +4142,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>145</v>
+        <v>527</v>
       </c>
       <c r="D18" s="7">
-        <v>106757</v>
+        <v>362618</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4595,10 +4157,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>144</v>
+        <v>509</v>
       </c>
       <c r="I18" s="7">
-        <v>109007</v>
+        <v>367158</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4610,10 +4172,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>289</v>
+        <v>1036</v>
       </c>
       <c r="N18" s="7">
-        <v>215764</v>
+        <v>729776</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4626,171 +4188,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7">
-        <v>9713</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H19" s="7">
-        <v>20</v>
-      </c>
-      <c r="I19" s="7">
-        <v>13833</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="M19" s="7">
-        <v>34</v>
-      </c>
-      <c r="N19" s="7">
-        <v>23546</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>495</v>
-      </c>
-      <c r="D20" s="7">
-        <v>357445</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H20" s="7">
-        <v>507</v>
-      </c>
-      <c r="I20" s="7">
-        <v>348785</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1002</v>
-      </c>
-      <c r="N20" s="7">
-        <v>706230</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>509</v>
-      </c>
-      <c r="D21" s="7">
-        <v>367158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>527</v>
-      </c>
-      <c r="I21" s="7">
-        <v>362618</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1036</v>
-      </c>
-      <c r="N21" s="7">
-        <v>729776</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4803,8 +4209,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78403FC-9F38-44F7-9EBB-9628BDE395A3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26FCA15C-0107-4C36-9270-387BF6D36EB5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4820,7 +4226,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4921,49 +4327,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>3528</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>4529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,49 +4378,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="D5" s="7">
-        <v>6505</v>
+        <v>66238</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="I5" s="7">
-        <v>9519</v>
+        <v>84248</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="N5" s="7">
-        <v>16023</v>
+        <v>150486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>30</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,10 +4429,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D6" s="7">
-        <v>6505</v>
+        <v>69766</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5038,10 +4444,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>9519</v>
+        <v>85249</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5053,10 +4459,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="N6" s="7">
-        <v>16023</v>
+        <v>155015</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5076,49 +4482,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>996</v>
+        <v>3030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3444</v>
+        <v>4547</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>4440</v>
+        <v>7577</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,49 +4533,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="D8" s="7">
-        <v>70756</v>
+        <v>110703</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="I8" s="7">
-        <v>59078</v>
+        <v>162829</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
-        <v>171</v>
+        <v>365</v>
       </c>
       <c r="N8" s="7">
-        <v>129834</v>
+        <v>273532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,10 +4584,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="D9" s="7">
-        <v>71752</v>
+        <v>113733</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5193,10 +4599,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="I9" s="7">
-        <v>62522</v>
+        <v>167376</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5208,10 +4614,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="N9" s="7">
-        <v>134274</v>
+        <v>281109</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5231,49 +4637,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1222</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6245</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>4647</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3301</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M10" s="7">
-        <v>9</v>
-      </c>
       <c r="N10" s="7">
-        <v>7948</v>
+        <v>7467</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,49 +4688,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="D11" s="7">
-        <v>162303</v>
+        <v>105733</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>339</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="I11" s="7">
-        <v>115199</v>
+        <v>114002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="M11" s="7">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="N11" s="7">
-        <v>277501</v>
+        <v>219735</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,10 +4739,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="D12" s="7">
-        <v>166950</v>
+        <v>106955</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5348,10 +4754,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="I12" s="7">
-        <v>118500</v>
+        <v>120247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5363,10 +4769,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="N12" s="7">
-        <v>285449</v>
+        <v>227202</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5386,49 +4792,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>5764</v>
+        <v>888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>1122</v>
+        <v>4576</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>6887</v>
+        <v>5464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,49 +4843,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D14" s="7">
-        <v>106057</v>
+        <v>100291</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I14" s="7">
-        <v>104164</v>
+        <v>106995</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="N14" s="7">
-        <v>210220</v>
+        <v>207287</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,10 +4894,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D15" s="7">
-        <v>111821</v>
+        <v>101179</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5503,10 +4909,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I15" s="7">
-        <v>105286</v>
+        <v>111571</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5518,10 +4924,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N15" s="7">
-        <v>217107</v>
+        <v>212751</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5535,55 +4941,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>4356</v>
+        <v>8668</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
-        <v>1005</v>
+        <v>16369</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>5361</v>
+        <v>25037</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,49 +4998,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>132</v>
+        <v>541</v>
       </c>
       <c r="D17" s="7">
-        <v>103419</v>
+        <v>382965</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="H17" s="7">
-        <v>138</v>
+        <v>554</v>
       </c>
       <c r="I17" s="7">
-        <v>103192</v>
+        <v>468075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="M17" s="7">
-        <v>270</v>
+        <v>1095</v>
       </c>
       <c r="N17" s="7">
-        <v>206611</v>
+        <v>851039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,10 +5049,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>554</v>
       </c>
       <c r="D18" s="7">
-        <v>107775</v>
+        <v>391633</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5658,10 +5064,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>139</v>
+        <v>570</v>
       </c>
       <c r="I18" s="7">
-        <v>104197</v>
+        <v>484444</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5673,10 +5079,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>277</v>
+        <v>1124</v>
       </c>
       <c r="N18" s="7">
-        <v>211972</v>
+        <v>876076</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5689,171 +5095,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7">
-        <v>15764</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="7">
-        <v>13</v>
-      </c>
-      <c r="I19" s="7">
-        <v>8873</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M19" s="7">
-        <v>29</v>
-      </c>
-      <c r="N19" s="7">
-        <v>24636</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>554</v>
-      </c>
-      <c r="D20" s="7">
-        <v>449039</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="H20" s="7">
-        <v>541</v>
-      </c>
-      <c r="I20" s="7">
-        <v>391151</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1095</v>
-      </c>
-      <c r="N20" s="7">
-        <v>840190</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>570</v>
-      </c>
-      <c r="D21" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>554</v>
-      </c>
-      <c r="I21" s="7">
-        <v>400024</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1124</v>
-      </c>
-      <c r="N21" s="7">
-        <v>864826</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
